--- a/data/Plate_results/Third_Plate_Rep2_211020.xlsx
+++ b/data/Plate_results/Third_Plate_Rep2_211020.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19090" yWindow="-3570" windowWidth="25820" windowHeight="14020" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OD" sheetId="1" state="visible" r:id="rId1"/>
@@ -20319,7 +20319,7 @@
   <dimension ref="A1:CS50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -50052,7 +50052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50075,11 +50075,11 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>24.45362671126741</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -50090,11 +50090,11 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.45362671126741</v>
+        <v>24.14740489760085</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -50105,11 +50105,11 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.14740489760085</v>
+        <v>23.0174355893349</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -50120,11 +50120,11 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.0174355893349</v>
+        <v>18.51594933657196</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -50135,11 +50135,11 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.51594933657196</v>
+        <v>16.25635176418861</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -50150,11 +50150,11 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.25635176418861</v>
+        <v>18.33953587014591</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -50165,11 +50165,11 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.33953587014591</v>
+        <v>17.67482819286364</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -50180,11 +50180,11 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.67482819286364</v>
+        <v>20.13079756464824</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -50195,11 +50195,11 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.13079756464824</v>
+        <v>16.69121295528307</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -50210,11 +50210,11 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.69121295528307</v>
+        <v>16.02076296050723</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -50225,11 +50225,11 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.02076296050723</v>
+        <v>15.01080166188494</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -50240,11 +50240,11 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.01080166188494</v>
+        <v>18.57116460571221</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -50255,11 +50255,11 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.57116460571221</v>
+        <v>34.92038410940959</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -50270,11 +50270,11 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.92038410940959</v>
+        <v>18.42129817654267</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -50285,11 +50285,11 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.42129817654267</v>
+        <v>15.09112251057871</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -50300,11 +50300,11 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.09112251057871</v>
+        <v>14.57827132562549</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -50315,11 +50315,11 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.57827132562549</v>
+        <v>15.53046337302092</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -50330,11 +50330,11 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.53046337302092</v>
+        <v>10.29701106292569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -50345,11 +50345,11 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.29701106292569</v>
+        <v>10.7921879787532</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -50360,11 +50360,11 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.7921879787532</v>
+        <v>8.446303647555707</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -50375,11 +50375,11 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.446303647555707</v>
+        <v>11.65310564429783</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -50390,11 +50390,11 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.65310564429783</v>
+        <v>9.554687191463168</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -50405,11 +50405,11 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.554687191463168</v>
+        <v>9.273507754628804</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -50420,11 +50420,11 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.273507754628804</v>
+        <v>15.91659144304214</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -50435,11 +50435,11 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.91659144304214</v>
+        <v>19.47314031234657</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -50450,11 +50450,11 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.47314031234657</v>
+        <v>12.68408732550512</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -50465,11 +50465,11 @@
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.68408732550512</v>
+        <v>19.1883242770866</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -50480,11 +50480,11 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.1883242770866</v>
+        <v>9.147057910047442</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -50495,11 +50495,11 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.147057910047442</v>
+        <v>9.317316279792156</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -50510,11 +50510,11 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.317316279792156</v>
+        <v>8.0191434188849</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -50525,11 +50525,11 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.0191434188849</v>
+        <v>7.647417561603464</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -50540,11 +50540,11 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.647417561603464</v>
+        <v>6.931300332535775</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -50555,11 +50555,11 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.931300332535775</v>
+        <v>9.309490650797773</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -50570,11 +50570,11 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.309490650797773</v>
+        <v>5.800280400379456</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -50585,11 +50585,11 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.800280400379456</v>
+        <v>5.280537113329202</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -50600,11 +50600,11 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.280537113329202</v>
+        <v>16.03916016767158</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -50615,11 +50615,11 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.03916016767158</v>
+        <v>26.0843625985774</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -50630,11 +50630,11 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.0843625985774</v>
+        <v>14.67413039091663</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -50645,11 +50645,11 @@
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.67413039091663</v>
+        <v>10.61968030298668</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -50660,11 +50660,11 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.61968030298668</v>
+        <v>10.34063893592457</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -50675,11 +50675,11 @@
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.34063893592457</v>
+        <v>5.728905720980978</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -50690,11 +50690,11 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.728905720980978</v>
+        <v>7.813030749547734</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -50705,11 +50705,11 @@
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.813030749547734</v>
+        <v>10.3452794145442</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -50720,11 +50720,11 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10.3452794145442</v>
+        <v>10.27544101250262</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -50735,11 +50735,11 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.27544101250262</v>
+        <v>4.93853350663673</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -50750,11 +50750,11 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.93853350663673</v>
+        <v>8.293081317236947</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -50765,11 +50765,11 @@
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8.293081317236947</v>
+        <v>5.638972880292181</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -50780,11 +50780,11 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.638972880292181</v>
+        <v>14.1834538561415</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -50795,11 +50795,11 @@
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>14.1834538561415</v>
+        <v>17.75622469321434</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -50810,11 +50810,11 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17.75622469321434</v>
+        <v>11.55676308873391</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -50825,11 +50825,11 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11.55676308873391</v>
+        <v>1.976737914860593</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -50840,11 +50840,11 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.976737914860593</v>
+        <v>6.924951722586202</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -50855,11 +50855,11 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6.924951722586202</v>
+        <v>8.100313644244357</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -50870,11 +50870,11 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8.100313644244357</v>
+        <v>20.15876485798406</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -50885,11 +50885,11 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>20.15876485798406</v>
+        <v>1.730046450159663</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -50900,11 +50900,11 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.730046450159663</v>
+        <v>6.665875235978612</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -50915,11 +50915,11 @@
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6.665875235978612</v>
+        <v>5.398750066016772</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -50930,11 +50930,11 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5.398750066016772</v>
+        <v>9.803529808847374</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -50945,11 +50945,11 @@
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9.803529808847374</v>
+        <v>10.57359027540835</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -50960,11 +50960,11 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10.57359027540835</v>
+        <v>18.05351590474823</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -50975,11 +50975,11 @@
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>18.05351590474823</v>
+        <v>16.92466308194673</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -50990,11 +50990,11 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>16.92466308194673</v>
+        <v>12.71480554512842</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -51005,11 +51005,11 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>12.71480554512842</v>
+        <v>9.646719401160329</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -51020,11 +51020,11 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.646719401160329</v>
+        <v>7.676145075070893</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -51035,11 +51035,11 @@
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>7.676145075070893</v>
+        <v>6.128280702610426</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -51050,11 +51050,11 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6.128280702610426</v>
+        <v>6.097355631804472</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -51065,11 +51065,11 @@
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6.097355631804472</v>
+        <v>14.85781537939023</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -51080,11 +51080,11 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>14.85781537939023</v>
+        <v>18.48183835435029</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -51095,11 +51095,11 @@
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>18.48183835435029</v>
+        <v>7.489289012989842</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -51110,11 +51110,11 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7.489289012989842</v>
+        <v>10.79601157539546</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -51125,41 +51125,41 @@
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>F10</t>
+          <t>F11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10.79601157539546</v>
+        <v>130.1020408163265</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Correct value</t>
+          <t>Possibly an empty well</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>F11</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>130.1020408163265</v>
+        <v>15.75122416165894</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Possibly an empty well</t>
+          <t>Correct value</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>15.75122416165894</v>
+        <v>16.9059846830459</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -51170,11 +51170,11 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>16.9059846830459</v>
+        <v>14.34015398398418</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -51185,11 +51185,11 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>14.34015398398418</v>
+        <v>8.662567254396661</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -51200,11 +51200,11 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8.662567254396661</v>
+        <v>10.66213938672844</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -51215,11 +51215,11 @@
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10.66213938672844</v>
+        <v>10.46776640079002</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -51230,11 +51230,11 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G6</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10.46776640079002</v>
+        <v>44.54252790760579</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -51245,11 +51245,11 @@
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>44.54252790760579</v>
+        <v>10.2709075756897</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -51260,11 +51260,11 @@
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10.2709075756897</v>
+        <v>12.05083057290954</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -51275,11 +51275,11 @@
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12.05083057290954</v>
+        <v>15.06758979438206</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -51290,11 +51290,11 @@
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>G9</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>15.06758979438206</v>
+        <v>10.93833821790083</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -51305,11 +51305,11 @@
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10.93833821790083</v>
+        <v>13.92936307059295</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -51320,11 +51320,11 @@
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13.92936307059295</v>
+        <v>17.78874989846452</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -51335,11 +51335,11 @@
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>17.78874989846452</v>
+        <v>17.68473771648719</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -51350,41 +51350,41 @@
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>17.68473771648719</v>
+        <v>144.8979591836734</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Correct value</t>
+          <t>Possibly an empty well</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>144.8979591836734</v>
+        <v>15.5105973010117</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Possibly an empty well</t>
+          <t>Correct value</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>15.5105973010117</v>
+        <v>29.83204088356871</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -51395,11 +51395,11 @@
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>29.83204088356871</v>
+        <v>16.14105166813409</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -51410,11 +51410,11 @@
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>16.14105166813409</v>
+        <v>17.79904379897677</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -51425,11 +51425,11 @@
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>17.79904379897677</v>
+        <v>36.62344430049529</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -51440,26 +51440,26 @@
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>36.62344430049529</v>
+        <v>156.25</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Correct value</t>
+          <t>Possibly an empty well</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>H8</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>156.25</v>
+        <v>151.6493055555556</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -51470,11 +51470,11 @@
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>151.6493055555556</v>
+        <v>154.3402777777778</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -51485,11 +51485,11 @@
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>H10</t>
+          <t>H11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>154.3402777777778</v>
+        <v>124.3294051627385</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -51500,28 +51500,13 @@
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>H11</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>124.3294051627385</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Possibly an empty well</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="inlineStr">
-        <is>
           <t>H12</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B97" t="n">
         <v>182.8014184397163</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Possibly an empty well</t>
         </is>
